--- a/MHCI_BP_predictor/randomStart_roc_auc.xlsx
+++ b/MHCI_BP_predictor/randomStart_roc_auc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxdwa\Documents\code\MHC-peptide_prediction\MHCI_BP_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BDBA5681-8685-4C07-84C2-6B37B9730CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648DF8D-2A7E-443D-ADF3-7C0B8D2866D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="randomStart_roc_auc" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1099,11 +1099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/MHCI_BP_predictor/randomStart_roc_auc.xlsx
+++ b/MHCI_BP_predictor/randomStart_roc_auc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxdwa\Documents\code\MHC-peptide_prediction\MHCI_BP_predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648DF8D-2A7E-443D-ADF3-7C0B8D2866D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D2A4E-E66D-4757-AA73-E11A20C5DB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,67 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>1-fold</t>
-  </si>
-  <si>
-    <t>2-fold</t>
-  </si>
-  <si>
-    <t>3-fold</t>
-  </si>
-  <si>
-    <t>4-fold</t>
-  </si>
-  <si>
-    <t>5-fold</t>
-  </si>
-  <si>
-    <t>6-fold</t>
-  </si>
-  <si>
-    <t>7-fold</t>
-  </si>
-  <si>
-    <t>8-fold</t>
-  </si>
-  <si>
-    <t>9-fold</t>
-  </si>
-  <si>
-    <t>10-fold</t>
-  </si>
-  <si>
-    <t>11-fold</t>
-  </si>
-  <si>
-    <t>12-fold</t>
-  </si>
-  <si>
-    <t>13-fold</t>
-  </si>
-  <si>
-    <t>14-fold</t>
-  </si>
-  <si>
-    <t>15-fold</t>
-  </si>
-  <si>
-    <t>16-fold</t>
-  </si>
-  <si>
-    <t>17-fold</t>
-  </si>
-  <si>
-    <t>18-fold</t>
-  </si>
-  <si>
-    <t>19-fold</t>
-  </si>
-  <si>
-    <t>20-fold</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>1-round</t>
   </si>
@@ -1103,7 +1043,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1234,64 +1174,64 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
